--- a/data/league_data/spain/18/spain_shooting.xlsx
+++ b/data/league_data/spain/18/spain_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD4D33E9-A792-9E4C-8E51-CB4BB09D21EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD232CAB-5C56-444F-A6FD-A694C13ECD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="584">
   <si>
     <t>Rk</t>
   </si>
@@ -727,9 +727,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1769,12 +1766,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2632,14 +2635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2667,7 +2670,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>-6.1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7963,12 +7966,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>583</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>26</v>
@@ -8040,7 +8043,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9262,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9483,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9945,7 +9948,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10233,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11597,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11982,7 +11985,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12213,7 +12216,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12290,7 +12293,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12367,7 +12370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12521,7 +12524,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12675,7 +12678,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12752,7 +12755,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12906,7 +12909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12983,7 +12986,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13060,7 +13063,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13214,7 +13217,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13368,7 +13371,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13522,7 +13525,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13589,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13666,7 +13669,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13743,7 +13746,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13897,7 +13900,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13974,7 +13977,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14128,7 +14131,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14205,7 +14208,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14282,7 +14285,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14359,7 +14362,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14436,7 +14439,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14513,7 +14516,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14590,12 +14593,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>235</v>
+        <v>582</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>26</v>
@@ -14667,12 +14670,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>26</v>
@@ -14734,12 +14737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>26</v>
@@ -14811,15 +14814,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>27</v>
@@ -14888,12 +14891,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>67</v>
@@ -14965,15 +14968,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>42</v>
@@ -15042,12 +15045,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>26</v>
@@ -15119,12 +15122,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>26</v>
@@ -15194,12 +15197,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>62</v>
@@ -15269,12 +15272,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>26</v>
@@ -15344,12 +15347,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>26</v>
@@ -15421,12 +15424,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>132</v>
@@ -15498,12 +15501,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>26</v>
@@ -15575,12 +15578,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>26</v>
@@ -15652,12 +15655,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>108</v>
@@ -15729,12 +15732,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>26</v>
@@ -15796,12 +15799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>90</v>
@@ -15873,12 +15876,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>67</v>
@@ -15950,12 +15953,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>26</v>
@@ -16027,12 +16030,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>26</v>
@@ -16104,12 +16107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>26</v>
@@ -16181,12 +16184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>26</v>
@@ -16258,12 +16261,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>26</v>
@@ -16335,12 +16338,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>62</v>
@@ -16412,12 +16415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>26</v>
@@ -16489,12 +16492,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>26</v>
@@ -16566,12 +16569,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>26</v>
@@ -16643,12 +16646,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>26</v>
@@ -16720,12 +16723,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>26</v>
@@ -16797,15 +16800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>50</v>
@@ -16874,12 +16877,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>62</v>
@@ -16951,12 +16954,12 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>26</v>
@@ -17028,15 +17031,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>80</v>
@@ -17105,12 +17108,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>26</v>
@@ -17182,12 +17185,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>26</v>
@@ -17259,12 +17262,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>90</v>
@@ -17336,12 +17339,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>26</v>
@@ -17413,12 +17416,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>26</v>
@@ -17490,12 +17493,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>26</v>
@@ -17567,18 +17570,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>83</v>
@@ -17644,12 +17647,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>62</v>
@@ -17721,12 +17724,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>26</v>
@@ -17798,12 +17801,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>26</v>
@@ -17875,12 +17878,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>62</v>
@@ -17952,12 +17955,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>26</v>
@@ -18029,12 +18032,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>82</v>
@@ -18106,12 +18109,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>26</v>
@@ -18183,12 +18186,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>108</v>
@@ -18258,12 +18261,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>67</v>
@@ -18335,12 +18338,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>26</v>
@@ -18412,15 +18415,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>27</v>
@@ -18489,12 +18492,12 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>90</v>
@@ -18566,12 +18569,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>26</v>
@@ -18643,12 +18646,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>26</v>
@@ -18720,15 +18723,15 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>27</v>
@@ -18797,12 +18800,12 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>26</v>
@@ -18874,12 +18877,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>112</v>
@@ -18951,12 +18954,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>132</v>
@@ -19028,12 +19031,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>26</v>
@@ -19105,12 +19108,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>100</v>
@@ -19182,12 +19185,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>132</v>
@@ -19259,12 +19262,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>26</v>
@@ -19336,12 +19339,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>26</v>
@@ -19413,12 +19416,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>26</v>
@@ -19488,12 +19491,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>26</v>
@@ -19565,15 +19568,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>50</v>
@@ -19642,15 +19645,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>50</v>
@@ -19719,12 +19722,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>90</v>
@@ -19796,12 +19799,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>62</v>
@@ -19873,12 +19876,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>95</v>
@@ -19950,12 +19953,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>26</v>
@@ -20027,15 +20030,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>80</v>
@@ -20104,12 +20107,12 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>26</v>
@@ -20181,12 +20184,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>112</v>
@@ -20258,12 +20261,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>26</v>
@@ -20333,12 +20336,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>26</v>
@@ -20408,12 +20411,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>26</v>
@@ -20485,12 +20488,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>26</v>
@@ -20562,12 +20565,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>26</v>
@@ -20639,15 +20642,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>42</v>
@@ -20716,12 +20719,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>26</v>
@@ -20791,12 +20794,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>62</v>
@@ -20868,12 +20871,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>26</v>
@@ -20945,12 +20948,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>112</v>
@@ -21022,12 +21025,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>26</v>
@@ -21099,12 +21102,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>26</v>
@@ -21166,12 +21169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>26</v>
@@ -21243,12 +21246,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>26</v>
@@ -21320,12 +21323,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>26</v>
@@ -21397,12 +21400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>26</v>
@@ -21474,12 +21477,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>26</v>
@@ -21551,15 +21554,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>74</v>
@@ -21628,12 +21631,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>26</v>
@@ -21705,12 +21708,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>26</v>
@@ -21782,12 +21785,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>26</v>
@@ -21859,12 +21862,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>26</v>
@@ -21936,12 +21939,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>26</v>
@@ -22013,12 +22016,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>26</v>
@@ -22090,12 +22093,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>62</v>
@@ -22167,7 +22170,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -22244,12 +22247,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>26</v>
@@ -22321,12 +22324,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>26</v>
@@ -22398,12 +22401,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>100</v>
@@ -22473,12 +22476,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>77</v>
@@ -22550,12 +22553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>26</v>
@@ -22627,12 +22630,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>26</v>
@@ -22704,12 +22707,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>62</v>
@@ -22781,12 +22784,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>108</v>
@@ -22858,7 +22861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22933,12 +22936,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>26</v>
@@ -23010,15 +23013,15 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>50</v>
@@ -23087,12 +23090,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>90</v>
@@ -23164,12 +23167,12 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>183</v>
@@ -23241,12 +23244,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>45</v>
@@ -23316,15 +23319,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>27</v>
@@ -23393,12 +23396,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>132</v>
@@ -23470,12 +23473,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>67</v>
@@ -23547,12 +23550,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>26</v>
@@ -23614,12 +23617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23691,12 +23694,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>82</v>
@@ -23768,12 +23771,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>26</v>
@@ -23845,12 +23848,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>67</v>
@@ -23922,15 +23925,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>50</v>
@@ -23999,12 +24002,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>100</v>
@@ -24076,12 +24079,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>45</v>
@@ -24153,15 +24156,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>27</v>
@@ -24230,12 +24233,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>26</v>
@@ -24307,15 +24310,15 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>42</v>
@@ -24384,12 +24387,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>62</v>
@@ -24461,12 +24464,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>26</v>
@@ -24538,12 +24541,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>204</v>
@@ -24615,15 +24618,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>74</v>
@@ -24692,12 +24695,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>26</v>
@@ -24769,12 +24772,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>67</v>
@@ -24844,15 +24847,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>74</v>
@@ -24921,12 +24924,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>82</v>
@@ -24998,15 +25001,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>27</v>
@@ -25075,12 +25078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>26</v>
@@ -25152,12 +25155,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>62</v>
@@ -25219,12 +25222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>26</v>
@@ -25296,12 +25299,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>26</v>
@@ -25373,12 +25376,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>100</v>
@@ -25448,12 +25451,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25525,12 +25528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>26</v>
@@ -25602,12 +25605,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>45</v>
@@ -25679,12 +25682,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>67</v>
@@ -25756,12 +25759,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>183</v>
@@ -25831,12 +25834,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>90</v>
@@ -25908,12 +25911,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>26</v>
@@ -25985,12 +25988,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
@@ -26062,12 +26065,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>62</v>
@@ -26139,12 +26142,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>77</v>
@@ -26214,12 +26217,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>26</v>
@@ -26291,12 +26294,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
@@ -26358,12 +26361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>26</v>
@@ -26435,12 +26438,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>67</v>
@@ -26512,12 +26515,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>26</v>
@@ -26589,15 +26592,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>50</v>
@@ -26666,12 +26669,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>62</v>
@@ -26743,15 +26746,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>42</v>
@@ -26820,12 +26823,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>26</v>
@@ -26897,12 +26900,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -26974,12 +26977,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>26</v>
@@ -27051,12 +27054,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>62</v>
@@ -27128,12 +27131,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>172</v>
@@ -27205,12 +27208,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -27272,12 +27275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
@@ -27349,12 +27352,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>108</v>
@@ -27426,12 +27429,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -27493,12 +27496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>45</v>
@@ -27570,12 +27573,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>141</v>
@@ -27647,12 +27650,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>82</v>
@@ -27724,12 +27727,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>26</v>
@@ -27799,12 +27802,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>26</v>
@@ -27876,12 +27879,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>26</v>
@@ -27953,12 +27956,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>26</v>
@@ -28030,12 +28033,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -28097,12 +28100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>106</v>
@@ -28174,15 +28177,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>74</v>
@@ -28251,12 +28254,12 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
@@ -28328,12 +28331,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>26</v>
@@ -28405,15 +28408,15 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>80</v>
@@ -28482,12 +28485,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>82</v>
@@ -28559,12 +28562,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>90</v>
@@ -28634,15 +28637,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>74</v>
@@ -28711,12 +28714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>26</v>
@@ -28778,12 +28781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
@@ -28853,12 +28856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -28928,12 +28931,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>26</v>
@@ -29005,12 +29008,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>26</v>
@@ -29080,12 +29083,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -29157,12 +29160,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>26</v>
@@ -29234,15 +29237,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>27</v>
@@ -29311,12 +29314,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29386,12 +29389,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>82</v>
@@ -29463,12 +29466,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29538,12 +29541,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>60</v>
@@ -29615,12 +29618,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>26</v>
@@ -29692,12 +29695,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29767,12 +29770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>26</v>
@@ -29844,12 +29847,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>26</v>
@@ -29911,12 +29914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -29978,12 +29981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>82</v>
@@ -30055,12 +30058,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>132</v>
@@ -30132,15 +30135,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>27</v>
@@ -30209,12 +30212,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>26</v>
@@ -30286,12 +30289,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>26</v>
@@ -30363,12 +30366,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>95</v>
@@ -30438,12 +30441,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>67</v>
@@ -30513,12 +30516,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -30580,12 +30583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>204</v>
@@ -30657,12 +30660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>26</v>
@@ -30734,12 +30737,12 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>26</v>
@@ -30811,12 +30814,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>82</v>
@@ -30888,12 +30891,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -30965,12 +30968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>26</v>
@@ -31042,12 +31045,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -31119,12 +31122,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>26</v>
@@ -31196,12 +31199,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>38</v>
@@ -31273,12 +31276,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>26</v>
@@ -31348,12 +31351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>26</v>
@@ -31425,15 +31428,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>80</v>
@@ -31502,12 +31505,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>26</v>
@@ -31577,12 +31580,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>26</v>
@@ -31644,15 +31647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>74</v>
@@ -31721,12 +31724,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>82</v>
@@ -31798,15 +31801,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>80</v>
@@ -31875,12 +31878,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>112</v>
@@ -31950,12 +31953,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>62</v>
@@ -32027,12 +32030,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -32094,12 +32097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>26</v>
@@ -32171,12 +32174,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>60</v>
@@ -32248,12 +32251,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>26</v>
@@ -32323,12 +32326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>26</v>
@@ -32400,12 +32403,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>26</v>
@@ -32477,15 +32480,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>27</v>
@@ -32554,12 +32557,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>26</v>
@@ -32629,12 +32632,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -32706,12 +32709,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>62</v>
@@ -32781,12 +32784,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>26</v>
@@ -32856,12 +32859,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>45</v>
@@ -32933,12 +32936,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -32988,18 +32991,18 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>63</v>
@@ -33065,12 +33068,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>132</v>
@@ -33142,12 +33145,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>82</v>
@@ -33219,12 +33222,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>26</v>
@@ -33294,12 +33297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -33371,12 +33374,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>95</v>
@@ -33448,12 +33451,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>62</v>
@@ -33515,15 +33518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>30</v>
@@ -33582,12 +33585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>62</v>
@@ -33659,12 +33662,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>26</v>
@@ -33726,12 +33729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>90</v>
@@ -33803,12 +33806,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>26</v>
@@ -33880,12 +33883,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>26</v>
@@ -33957,15 +33960,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>74</v>
@@ -34034,12 +34037,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -34111,12 +34114,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>82</v>
@@ -34188,12 +34191,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -34265,12 +34268,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>45</v>
@@ -34340,15 +34343,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>80</v>
@@ -34417,15 +34420,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>80</v>
@@ -34494,12 +34497,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -34571,12 +34574,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>112</v>
@@ -34646,12 +34649,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>82</v>
@@ -34723,12 +34726,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -34790,12 +34793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>62</v>
@@ -34857,15 +34860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>27</v>
@@ -34934,12 +34937,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -35011,12 +35014,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
@@ -35088,15 +35091,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>27</v>
@@ -35165,12 +35168,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>60</v>
@@ -35242,12 +35245,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -35317,15 +35320,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>42</v>
@@ -35394,15 +35397,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>42</v>
@@ -35469,12 +35472,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -35536,12 +35539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>62</v>
@@ -35611,12 +35614,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -35688,12 +35691,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>183</v>
@@ -35765,12 +35768,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>62</v>
@@ -35840,15 +35843,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>80</v>
@@ -35917,12 +35920,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -35994,12 +35997,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>204</v>
@@ -36071,12 +36074,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36148,12 +36151,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -36225,15 +36228,15 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>74</v>
@@ -36302,12 +36305,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>112</v>
@@ -36379,12 +36382,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>100</v>
@@ -36456,12 +36459,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>26</v>
@@ -36533,12 +36536,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -36610,12 +36613,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>26</v>
@@ -36677,12 +36680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36754,12 +36757,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36831,12 +36834,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36906,12 +36909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>90</v>
@@ -36983,12 +36986,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>26</v>
@@ -37060,12 +37063,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37127,12 +37130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37194,12 +37197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>100</v>
@@ -37269,12 +37272,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>62</v>
@@ -37346,12 +37349,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -37423,12 +37426,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
@@ -37498,12 +37501,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -37573,15 +37576,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>27</v>
@@ -37650,12 +37653,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>106</v>
@@ -37725,12 +37728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>62</v>
@@ -37802,12 +37805,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>26</v>
@@ -37879,15 +37882,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>74</v>
@@ -37956,12 +37959,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>26</v>
@@ -38031,12 +38034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -38106,12 +38109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38183,12 +38186,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38260,12 +38263,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38337,12 +38340,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -38404,12 +38407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>100</v>
@@ -38481,12 +38484,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -38548,12 +38551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38615,12 +38618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>62</v>
@@ -38692,12 +38695,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>26</v>
@@ -38767,12 +38770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>112</v>
@@ -38842,12 +38845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>172</v>
@@ -38919,12 +38922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38996,12 +38999,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
@@ -39063,12 +39066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>90</v>
@@ -39130,12 +39133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39197,12 +39200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
@@ -39274,12 +39277,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39349,12 +39352,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39424,12 +39427,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>62</v>
@@ -39491,15 +39494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>27</v>
@@ -39568,12 +39571,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -39643,15 +39646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>30</v>
@@ -39710,12 +39713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39785,12 +39788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -39862,12 +39865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39937,12 +39940,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -40014,15 +40017,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>50</v>
@@ -40089,12 +40092,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40156,12 +40159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40233,12 +40236,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40310,12 +40313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -40387,12 +40390,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>112</v>
@@ -40462,15 +40465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>27</v>
@@ -40539,7 +40542,6 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/18/spain_shooting.xlsx
+++ b/data/league_data/spain/18/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD232CAB-5C56-444F-A6FD-A694C13ECD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191141C-D6AC-D440-B136-43C4335B3A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="585">
   <si>
     <t>Rk</t>
   </si>
@@ -1309,9 +1309,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1772,6 +1769,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4163,7 +4166,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>584</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
@@ -7971,7 +7974,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>26</v>
@@ -14598,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>26</v>
@@ -28567,7 +28570,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>429</v>
+        <v>583</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>90</v>
@@ -28642,7 +28645,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>314</v>
@@ -28719,7 +28722,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>26</v>
@@ -28786,7 +28789,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>26</v>
@@ -28861,7 +28864,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -28936,7 +28939,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>26</v>
@@ -29013,7 +29016,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>26</v>
@@ -29088,7 +29091,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>26</v>
@@ -29165,7 +29168,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>26</v>
@@ -29242,10 +29245,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>27</v>
@@ -29319,7 +29322,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29394,7 +29397,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>82</v>
@@ -29471,7 +29474,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>26</v>
@@ -29546,7 +29549,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>60</v>
@@ -29623,7 +29626,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>26</v>
@@ -29700,7 +29703,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>26</v>
@@ -29775,7 +29778,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>26</v>
@@ -29852,7 +29855,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>26</v>
@@ -29919,7 +29922,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -29986,7 +29989,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>82</v>
@@ -30063,7 +30066,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>132</v>
@@ -30140,7 +30143,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>366</v>
@@ -30217,7 +30220,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>26</v>
@@ -30294,7 +30297,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>26</v>
@@ -30371,7 +30374,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>95</v>
@@ -30446,7 +30449,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>67</v>
@@ -30521,7 +30524,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>26</v>
@@ -30588,7 +30591,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>204</v>
@@ -30665,7 +30668,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>26</v>
@@ -30742,7 +30745,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>26</v>
@@ -30819,7 +30822,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>82</v>
@@ -30896,7 +30899,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -30973,7 +30976,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>26</v>
@@ -31050,7 +31053,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -31127,7 +31130,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>26</v>
@@ -31204,7 +31207,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>38</v>
@@ -31281,7 +31284,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>26</v>
@@ -31356,7 +31359,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>26</v>
@@ -31433,7 +31436,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>335</v>
@@ -31510,7 +31513,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>26</v>
@@ -31585,7 +31588,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>26</v>
@@ -31652,7 +31655,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>314</v>
@@ -31729,7 +31732,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>82</v>
@@ -31806,7 +31809,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>238</v>
@@ -31883,7 +31886,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>112</v>
@@ -31958,7 +31961,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>62</v>
@@ -32035,7 +32038,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>26</v>
@@ -32102,7 +32105,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>26</v>
@@ -32179,7 +32182,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>60</v>
@@ -32256,7 +32259,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>26</v>
@@ -32331,7 +32334,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>26</v>
@@ -32408,7 +32411,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>26</v>
@@ -32562,7 +32565,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>26</v>
@@ -32637,7 +32640,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -32714,7 +32717,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>62</v>
@@ -32789,7 +32792,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>26</v>
@@ -32864,7 +32867,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>45</v>
@@ -32941,7 +32944,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -32996,7 +32999,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>26</v>
@@ -33073,7 +33076,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>132</v>
@@ -33150,7 +33153,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>82</v>
@@ -33302,7 +33305,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>26</v>
@@ -33379,7 +33382,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>95</v>
@@ -33456,7 +33459,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>62</v>
@@ -33523,7 +33526,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>295</v>
@@ -33590,7 +33593,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>62</v>
@@ -33667,7 +33670,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>26</v>
@@ -33734,7 +33737,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>90</v>
@@ -33811,7 +33814,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>26</v>
@@ -33888,7 +33891,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>26</v>
@@ -33965,7 +33968,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>366</v>
@@ -34042,7 +34045,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -34119,7 +34122,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>82</v>
@@ -34196,7 +34199,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -34273,7 +34276,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>45</v>
@@ -34348,10 +34351,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>80</v>
@@ -34425,7 +34428,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>366</v>
@@ -34502,7 +34505,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -34579,7 +34582,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>112</v>
@@ -34654,7 +34657,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>82</v>
@@ -34731,7 +34734,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>26</v>
@@ -34798,7 +34801,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>62</v>
@@ -34865,7 +34868,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>238</v>
@@ -34942,7 +34945,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -35019,7 +35022,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>26</v>
@@ -35096,10 +35099,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>27</v>
@@ -35173,7 +35176,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>60</v>
@@ -35250,7 +35253,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -35325,10 +35328,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>42</v>
@@ -35402,7 +35405,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>295</v>
@@ -35477,7 +35480,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -35544,7 +35547,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>62</v>
@@ -35619,7 +35622,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>26</v>
@@ -35696,7 +35699,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>183</v>
@@ -35773,7 +35776,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>62</v>
@@ -35848,7 +35851,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>366</v>
@@ -35925,7 +35928,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36002,7 +36005,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>204</v>
@@ -36079,7 +36082,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36156,7 +36159,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>26</v>
@@ -36233,10 +36236,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>74</v>
@@ -36310,7 +36313,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>112</v>
@@ -36387,7 +36390,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>100</v>
@@ -36464,7 +36467,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>26</v>
@@ -36618,7 +36621,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>26</v>
@@ -36685,7 +36688,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36762,7 +36765,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36839,7 +36842,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>26</v>
@@ -36914,7 +36917,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>90</v>
@@ -36991,7 +36994,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>26</v>
@@ -37068,7 +37071,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37135,7 +37138,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37202,7 +37205,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>100</v>
@@ -37277,7 +37280,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>62</v>
@@ -37354,7 +37357,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>26</v>
@@ -37431,7 +37434,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>26</v>
@@ -37506,7 +37509,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>26</v>
@@ -37581,10 +37584,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>27</v>
@@ -37733,7 +37736,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>62</v>
@@ -37810,7 +37813,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>26</v>
@@ -37887,10 +37890,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>74</v>
@@ -37964,7 +37967,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>26</v>
@@ -38039,7 +38042,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>26</v>
@@ -38114,7 +38117,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38191,7 +38194,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38268,7 +38271,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38345,7 +38348,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -38412,7 +38415,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>100</v>
@@ -38489,7 +38492,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -38556,7 +38559,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38623,7 +38626,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>62</v>
@@ -38700,7 +38703,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>26</v>
@@ -38775,7 +38778,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>112</v>
@@ -38850,7 +38853,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>172</v>
@@ -38927,7 +38930,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -39004,7 +39007,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
@@ -39071,7 +39074,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>90</v>
@@ -39138,7 +39141,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39205,7 +39208,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>26</v>
@@ -39282,7 +39285,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39357,7 +39360,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39432,7 +39435,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>62</v>
@@ -39499,10 +39502,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>27</v>
@@ -39576,7 +39579,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>26</v>
@@ -39651,7 +39654,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>366</v>
@@ -39718,7 +39721,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39793,7 +39796,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -39870,7 +39873,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39945,7 +39948,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -40022,10 +40025,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>50</v>
@@ -40097,7 +40100,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40164,7 +40167,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40241,7 +40244,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40318,7 +40321,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>26</v>
@@ -40395,7 +40398,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>112</v>
